--- a/Alex/Sensors/Magnetometer/Magnetometers.xlsx
+++ b/Alex/Sensors/Magnetometer/Magnetometers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\CubeSat_project\Alex\Sensors\Magnetometer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15050BC-8A7D-4E37-9CED-93EB574F28AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3BBA8-1CCA-4ACD-8704-92E596547EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CB96208E-81EA-46D3-91FC-00CE8F4386A1}"/>
+    <workbookView minimized="1" xWindow="3765" yWindow="2715" windowWidth="21600" windowHeight="12735" xr2:uid="{CB96208E-81EA-46D3-91FC-00CE8F4386A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Company</t>
   </si>
@@ -68,15 +68,9 @@
     <t>max power (mA)</t>
   </si>
   <si>
-    <t>33(flanged)/20</t>
-  </si>
-  <si>
     <t>mass(g)</t>
   </si>
   <si>
-    <t>12(flanged)/10 +/- 1</t>
-  </si>
-  <si>
     <t>Range (μT)</t>
   </si>
   <si>
@@ -93,6 +87,9 @@
   </si>
   <si>
     <t>Power Supply (Vdc)</t>
+  </si>
+  <si>
+    <t>33(</t>
   </si>
 </sst>
 </file>
@@ -476,7 +473,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -521,10 +518,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -535,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -543,7 +540,7 @@
       <c r="E2">
         <v>11.3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
         <v>12</v>
       </c>
       <c r="G2">
@@ -556,15 +553,15 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>99</v>
@@ -585,7 +582,7 @@
         <v>750</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>5</v>
